--- a/medicine/Mort/Vieux_cimetière_de_La_Courneuve/Vieux_cimetière_de_La_Courneuve.xlsx
+++ b/medicine/Mort/Vieux_cimetière_de_La_Courneuve/Vieux_cimetière_de_La_Courneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vieux_cimeti%C3%A8re_de_La_Courneuve</t>
+          <t>Vieux_cimetière_de_La_Courneuve</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vieux cimetière de La Courneuve est un cimetière se trouvant à l'angle de la rue de la Convention et de l'avenue Henri-Barbusse à La Courneuve[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vieux cimetière de La Courneuve est un cimetière se trouvant à l'angle de la rue de la Convention et de l'avenue Henri-Barbusse à La Courneuve.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vieux_cimeti%C3%A8re_de_La_Courneuve</t>
+          <t>Vieux_cimetière_de_La_Courneuve</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plus ancien cimetière de la commune, attenant à l'église Saint-Lucien de La Courneuve et lui étant au moins contemporain, et qui a donc échappé aux déplacements dus au décret impérial sur les sépultures de 1804. En 1829, les alentours de l'église ont toutefois été dégagées.
-On y a retrouvé des sarcophages en plâtre, datant du Moyen-Âge et de l'époque mérovingienne[3].
-Il a été agrandi en vertu d'une délibération du Conseil municipal en date du 11 février 1834[4], puis une nouvelle fois en 1891.
+On y a retrouvé des sarcophages en plâtre, datant du Moyen-Âge et de l'époque mérovingienne.
+Il a été agrandi en vertu d'une délibération du Conseil municipal en date du 11 février 1834, puis une nouvelle fois en 1891.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vieux_cimeti%C3%A8re_de_La_Courneuve</t>
+          <t>Vieux_cimetière_de_La_Courneuve</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs maires de la ville y ont été enterrés[5]. Outre le carré militaire[6], y sont de plus inhumés:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs maires de la ville y ont été enterrés. Outre le carré militaire, y sont de plus inhumés:
 Le général Jean Paul Adam Schramm (1789-1844).
 L'abbé Jean-Édouard Lamy (1853-1931), ancien curé de l'église Saint-Lucien.
-Georges Magnier, exécuté sommairement le 15 août 1944[7]. L'ancienne rue du Clos à La Courneuve a été renommée en son hommage.
-Marc Lepilleur, tué le 15 août 1944 à Aubervilliers[8].
+Georges Magnier, exécuté sommairement le 15 août 1944. L'ancienne rue du Clos à La Courneuve a été renommée en son hommage.
+Marc Lepilleur, tué le 15 août 1944 à Aubervilliers.
 			Tombe du général Jean Paul Adam Schramm.
 			Tombe de l'abbé Jean-Édouard Lamy.
 			Le carré militaire.
